--- a/forms/reconaregistration/reconaregistration.xlsx
+++ b/forms/reconaregistration/reconaregistration.xlsx
@@ -30626,7 +30626,7 @@
       </c>
       <c r="C2" s="67" t="str">
         <f>TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") </f>
-        <v>22092004</v>
+        <v>22092005</v>
       </c>
       <c r="D2" s="68"/>
       <c r="E2" s="22"/>
